--- a/public/media/Prueba Inventario.xlsx
+++ b/public/media/Prueba Inventario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalej\OneDrive\Documentos\PracticaWeb\DesarrolloWebAvanzado\FrontInventario\Astro\public\media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44814379db3c9f37/Documentos/PracticaWeb/DesarrolloWebAvanzado/FrontInventario/Astro/public/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD0E66A-4DCC-4271-B4B7-F408333114B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{8FD0E66A-4DCC-4271-B4B7-F408333114B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D461EE6E-1EDB-4C27-96B1-2252F45417D7}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{69A7B7E1-6168-44B8-9C51-16A8D4F1E5F1}"/>
   </bookViews>
@@ -197,7 +197,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>nombre2</t>
+    <t>nombre</t>
   </si>
 </sst>
 </file>
@@ -337,20 +337,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -468,6 +454,20 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
         <bottom/>
         <vertical/>
         <horizontal/>
@@ -555,15 +555,15 @@
   <autoFilter ref="A1:J13" xr:uid="{6DF85C86-FA0C-448A-B484-3E72E41DDE39}"/>
   <tableColumns count="10">
     <tableColumn id="2" xr3:uid="{D55D9281-EE99-4909-AEBF-0585A38F7EF9}" name="id" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{5AF3782D-E718-4212-BDEE-F5111B1B7338}" name="nombre2" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{916BDD71-EA31-47AE-BBD1-46D87A5DA5D3}" name="marca" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{FA0483D3-DC8F-4E00-A5B2-2F21485F70AD}" name="modelo" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{49F73D44-1775-4600-817A-6EB98DBFC9F0}" name="estado" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{AD4E9743-57BE-4CB2-87EE-E6FD919EAB9C}" name="descripcion" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{ACA756E9-CDDA-4E39-8B3E-4B1A81201304}" name="precio" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{87515B74-BD70-41F8-99BC-288989893046}" name="fecha" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{7DCAA867-CF4E-41D6-8360-11991A725A1A}" name="ubicacion" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{164C679C-30DB-422F-AE72-C580059EFA55}" name="categoria" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{5AF3782D-E718-4212-BDEE-F5111B1B7338}" name="nombre" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{916BDD71-EA31-47AE-BBD1-46D87A5DA5D3}" name="marca" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{FA0483D3-DC8F-4E00-A5B2-2F21485F70AD}" name="modelo" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{49F73D44-1775-4600-817A-6EB98DBFC9F0}" name="estado" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{AD4E9743-57BE-4CB2-87EE-E6FD919EAB9C}" name="descripcion" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{ACA756E9-CDDA-4E39-8B3E-4B1A81201304}" name="precio" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{87515B74-BD70-41F8-99BC-288989893046}" name="fecha" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{7DCAA867-CF4E-41D6-8360-11991A725A1A}" name="ubicacion" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{164C679C-30DB-422F-AE72-C580059EFA55}" name="categoria" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -889,7 +889,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -898,9 +898,8 @@
     <col min="3" max="3" width="16.73046875" customWidth="1"/>
     <col min="4" max="5" width="13.265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.9296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.9296875" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="10.265625" bestFit="1" customWidth="1"/>
